--- a/Results/4_vs_8_Warfarin.xlsx
+++ b/Results/4_vs_8_Warfarin.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sina/Documents/GitHub/prescriptive-trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3317F2D0-ACA2-C14C-A10C-87D92272B981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5243BFC5-1F9E-224D-B513-29308292D5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28360" yWindow="1640" windowWidth="27240" windowHeight="15940" xr2:uid="{3AD735BC-9872-F344-953A-7367F2B77081}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36DA984-5ECF-C94A-8792-95AFC152668E}">
-  <dimension ref="A2:F83"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,6 +477,24 @@
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <f>SUBTOTAL(1,C4:C83)</f>
+        <v>7.649524493425</v>
+      </c>
+      <c r="D1">
+        <f>SUBTOTAL(1,D4:D83)</f>
+        <v>1643.1976311615374</v>
+      </c>
+      <c r="E1">
+        <f>SUBTOTAL(1,E4:E83)</f>
+        <v>7.785207878045675</v>
+      </c>
+      <c r="F1">
+        <f>SUBTOTAL(1,F4:F83)</f>
+        <v>1523.2407390803085</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>24</v>
